--- a/Horarios Datos.xlsx
+++ b/Horarios Datos.xlsx
@@ -200,8 +200,7 @@
     </font>
     <font>
       <b/>
-      <strike/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -215,7 +214,8 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
+      <strike/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -363,14 +363,14 @@
       </right>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -426,7 +426,7 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -436,13 +436,13 @@
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="10" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -459,17 +459,17 @@
     <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1176,14 +1176,8 @@
       <c r="D22" s="16"/>
       <c r="G22" s="17"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="N22" s="29"/>
       <c r="Q22" s="12"/>
       <c r="V22" s="12"/>
-      <c r="X22" s="29"/>
-      <c r="Y22" s="29"/>
-      <c r="Z22" s="29"/>
       <c r="AA22" s="17"/>
       <c r="AF22" s="17"/>
       <c r="AH22" s="27"/>
@@ -1201,7 +1195,7 @@
       <c r="L23" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="N23" s="30"/>
+      <c r="N23" s="29"/>
       <c r="O23" s="17"/>
       <c r="Q23" s="12"/>
       <c r="T23" s="17"/>
@@ -1226,7 +1220,7 @@
       <c r="H24" s="17"/>
       <c r="J24" s="12"/>
       <c r="K24" s="17"/>
-      <c r="N24" s="30"/>
+      <c r="N24" s="29"/>
       <c r="O24" s="17"/>
       <c r="Q24" s="12"/>
       <c r="T24" s="17"/>
@@ -1248,7 +1242,7 @@
       <c r="H25" s="17"/>
       <c r="J25" s="12"/>
       <c r="K25" s="17"/>
-      <c r="N25" s="30"/>
+      <c r="N25" s="29"/>
       <c r="O25" s="17"/>
       <c r="Q25" s="12"/>
       <c r="T25" s="17"/>
@@ -1270,7 +1264,7 @@
       <c r="H26" s="17"/>
       <c r="J26" s="12"/>
       <c r="K26" s="17"/>
-      <c r="N26" s="30"/>
+      <c r="N26" s="29"/>
       <c r="O26" s="17"/>
       <c r="Q26" s="12"/>
       <c r="T26" s="17"/>
@@ -1291,7 +1285,7 @@
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="J27" s="12"/>
-      <c r="N27" s="30"/>
+      <c r="N27" s="29"/>
       <c r="O27" s="17"/>
       <c r="Q27" s="12"/>
       <c r="S27" s="17"/>
@@ -1309,36 +1303,36 @@
       <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="32"/>
       <c r="E28" s="33"/>
-      <c r="F28" s="29"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="34"/>
       <c r="H28" s="34"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="30"/>
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
-      <c r="M28" s="29"/>
+      <c r="M28" s="31"/>
       <c r="N28" s="35"/>
       <c r="O28" s="34"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="29"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="31"/>
       <c r="S28" s="34"/>
       <c r="T28" s="34"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="29"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="30"/>
+      <c r="W28" s="31"/>
       <c r="X28" s="34"/>
       <c r="Y28" s="34"/>
       <c r="Z28" s="34"/>
       <c r="AA28" s="34"/>
       <c r="AB28" s="33"/>
-      <c r="AC28" s="29"/>
-      <c r="AD28" s="29"/>
-      <c r="AE28" s="29"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
       <c r="AF28" s="34"/>
       <c r="AG28" s="34"/>
       <c r="AH28" s="36"/>
@@ -1347,58 +1341,58 @@
   <mergeCells count="54">
     <mergeCell ref="Q1:U1"/>
     <mergeCell ref="S3:S12"/>
+    <mergeCell ref="T13:T22"/>
+    <mergeCell ref="J2:J11"/>
+    <mergeCell ref="K3:K12"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="K13:K22"/>
+    <mergeCell ref="L13:L22"/>
+    <mergeCell ref="N13:N22"/>
+    <mergeCell ref="O13:O22"/>
+    <mergeCell ref="AF13:AF18"/>
+    <mergeCell ref="AF23:AF26"/>
+    <mergeCell ref="AD2:AD11"/>
+    <mergeCell ref="AE2:AE11"/>
+    <mergeCell ref="AG13:AG22"/>
+    <mergeCell ref="AC19:AC28"/>
+    <mergeCell ref="AD19:AD28"/>
+    <mergeCell ref="AE19:AE28"/>
+    <mergeCell ref="AH19:AH28"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="E13:E22"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C19:C28"/>
+    <mergeCell ref="F19:F28"/>
+    <mergeCell ref="V3:V12"/>
+    <mergeCell ref="W3:W12"/>
+    <mergeCell ref="X13:X22"/>
+    <mergeCell ref="Y13:Y22"/>
+    <mergeCell ref="Z13:Z22"/>
+    <mergeCell ref="AB13:AB22"/>
+    <mergeCell ref="AA3:AA12"/>
+    <mergeCell ref="AF3:AF12"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="V1:AC1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="H13:H22"/>
+    <mergeCell ref="I19:I28"/>
+    <mergeCell ref="J19:J28"/>
+    <mergeCell ref="M21:M28"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="V19:V28"/>
+    <mergeCell ref="W21:W28"/>
     <mergeCell ref="Q2:Q11"/>
     <mergeCell ref="R2:R11"/>
-    <mergeCell ref="O13:O22"/>
-    <mergeCell ref="T13:T22"/>
     <mergeCell ref="P19:P28"/>
     <mergeCell ref="Q19:Q28"/>
     <mergeCell ref="R19:R28"/>
     <mergeCell ref="S19:S26"/>
-    <mergeCell ref="J19:J28"/>
-    <mergeCell ref="J13:J18"/>
-    <mergeCell ref="J2:J11"/>
-    <mergeCell ref="K3:K12"/>
-    <mergeCell ref="M21:M28"/>
-    <mergeCell ref="N13:N22"/>
-    <mergeCell ref="K13:K22"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="L13:L22"/>
-    <mergeCell ref="AD2:AD11"/>
-    <mergeCell ref="AE2:AE11"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="E13:E22"/>
-    <mergeCell ref="H13:H22"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="F19:F28"/>
-    <mergeCell ref="I19:I28"/>
-    <mergeCell ref="V3:V12"/>
-    <mergeCell ref="W3:W12"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="V1:AC1"/>
-    <mergeCell ref="B1:I1"/>
     <mergeCell ref="U19:U28"/>
-    <mergeCell ref="V19:V28"/>
-    <mergeCell ref="W21:W28"/>
-    <mergeCell ref="X13:X22"/>
-    <mergeCell ref="Y13:Y22"/>
-    <mergeCell ref="Z13:Z22"/>
-    <mergeCell ref="AE19:AE28"/>
-    <mergeCell ref="AH19:AH28"/>
-    <mergeCell ref="AF23:AF26"/>
-    <mergeCell ref="AA3:AA12"/>
-    <mergeCell ref="AF3:AF12"/>
-    <mergeCell ref="AB13:AB22"/>
-    <mergeCell ref="AF13:AF18"/>
-    <mergeCell ref="AG13:AG22"/>
-    <mergeCell ref="AC19:AC28"/>
-    <mergeCell ref="AD19:AD28"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Horarios Datos.xlsx
+++ b/Horarios Datos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>LUNES</t>
   </si>
@@ -40,7 +40,7 @@
     <t>09:00 - 09:30</t>
   </si>
   <si>
-    <t>ALGO 1 / INTRO A LA PROG (TM)</t>
+    <t>IAP (A)</t>
   </si>
   <si>
     <t>ANALISIS 1 (TURNO 1 Y 2)</t>
@@ -49,18 +49,27 @@
     <t>ANALISIS 2 (TURNO 1 Y 2)</t>
   </si>
   <si>
+    <t>LABO DE DATOS (DC)</t>
+  </si>
+  <si>
     <t>ALGEBRA I (TURNO 1 Y 2)</t>
   </si>
   <si>
     <t>ALC</t>
   </si>
   <si>
+    <t>IAP (A+ B)</t>
+  </si>
+  <si>
     <t>09:30 - 10:00</t>
   </si>
   <si>
     <t>10:00 - 10:30</t>
   </si>
   <si>
+    <t>INTRO A INV OP Y OPT</t>
+  </si>
+  <si>
     <t>10:30 - 11:00</t>
   </si>
   <si>
@@ -70,6 +79,9 @@
     <t>11:30 - 12:00</t>
   </si>
   <si>
+    <t>IAP (B)</t>
+  </si>
+  <si>
     <t>12:00 - 12:30</t>
   </si>
   <si>
@@ -91,15 +103,12 @@
     <t>ANALISIS 2 (TURNO 3)</t>
   </si>
   <si>
-    <t>LABO DE DATOS</t>
+    <t>LABO DE DATOS (IC1)</t>
   </si>
   <si>
     <t>INTRO A EST Y CS DE DATOS</t>
   </si>
   <si>
-    <t>INTRO A INV OPERATIVA Y OPT</t>
-  </si>
-  <si>
     <t>PROBA Y EST</t>
   </si>
   <si>
@@ -124,7 +133,7 @@
     <t>17:00 - 17:30</t>
   </si>
   <si>
-    <t>ALGO 1 / INTRO A LA PROG (TN)</t>
+    <t>IAP (C)</t>
   </si>
   <si>
     <t>ALGO 3 / TDA (TN)</t>
@@ -145,6 +154,9 @@
     <t>INTRO MC</t>
   </si>
   <si>
+    <t>IAP (C+ D)</t>
+  </si>
+  <si>
     <t>17:30 - 18:00</t>
   </si>
   <si>
@@ -154,6 +166,9 @@
     <t>ANALISIS AVANZADO</t>
   </si>
   <si>
+    <t>LABO DE DATOS (IC2)</t>
+  </si>
+  <si>
     <t>18:30 - 19:00</t>
   </si>
   <si>
@@ -161,6 +176,9 @@
   </si>
   <si>
     <t>19:30 - 20:00</t>
+  </si>
+  <si>
+    <t>IAP (D)</t>
   </si>
   <si>
     <t>20:00 - 20:30</t>
@@ -179,7 +197,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -200,6 +218,18 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -259,6 +289,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF6D9EEB"/>
         <bgColor rgb="FF6D9EEB"/>
       </patternFill>
@@ -271,20 +307,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6AA84F"/>
-        <bgColor rgb="FF6AA84F"/>
+        <fgColor rgb="FF990000"/>
+        <bgColor rgb="FF990000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA64D79"/>
         <bgColor rgb="FFA64D79"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF990000"/>
-        <bgColor rgb="FF990000"/>
       </patternFill>
     </fill>
     <fill>
@@ -387,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -406,8 +436,14 @@
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" textRotation="180" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
@@ -416,31 +452,47 @@
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" textRotation="180" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" textRotation="180"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+      <alignment horizontal="center" textRotation="180"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
@@ -449,17 +501,13 @@
     <xf borderId="0" fillId="13" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
+    </xf>
     <xf borderId="0" fillId="14" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" textRotation="180" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -711,18 +759,18 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="2"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="2"/>
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="1" t="s">
+      <c r="U1" s="2"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -747,652 +795,675 @@
       <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="AD2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="V2" s="7"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="9"/>
       <c r="AH2" s="7"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="13" t="s">
+      <c r="H3" s="13"/>
+      <c r="I3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="J3" s="15"/>
+      <c r="K3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="12"/>
-      <c r="S3" s="10" t="s">
+      <c r="M3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="15"/>
+      <c r="T3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="7"/>
-      <c r="V3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="W3" s="14" t="s">
+      <c r="V3" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="20"/>
+      <c r="AA3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="X3" s="15"/>
-      <c r="AA3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD3" s="12"/>
-      <c r="AF3" s="13" t="s">
-        <v>12</v>
       </c>
       <c r="AH3" s="7"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="12"/>
-      <c r="X4" s="15"/>
-      <c r="AD4" s="12"/>
+        <v>16</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="H4" s="13"/>
+      <c r="J4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="V4" s="21"/>
+      <c r="Y4" s="20"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="9"/>
       <c r="AH4" s="7"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="E5" s="16"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="12"/>
-      <c r="X5" s="15"/>
-      <c r="AD5" s="12"/>
+        <v>17</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="E5" s="22"/>
+      <c r="H5" s="13"/>
+      <c r="J5" s="15"/>
+      <c r="L5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="15"/>
+      <c r="V5" s="21"/>
+      <c r="Y5" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="9"/>
       <c r="AH5" s="7"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="E6" s="16"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="12"/>
-      <c r="X6" s="15"/>
-      <c r="AD6" s="12"/>
+        <v>19</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="E6" s="22"/>
+      <c r="H6" s="13"/>
+      <c r="J6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="V6" s="21"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="9"/>
       <c r="AH6" s="7"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="E7" s="16"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="12"/>
-      <c r="X7" s="15"/>
-      <c r="AD7" s="12"/>
+        <v>20</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="E7" s="22"/>
+      <c r="H7" s="13"/>
+      <c r="J7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="V7" s="21"/>
+      <c r="AD7" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE7" s="9"/>
       <c r="AH7" s="7"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="E8" s="16"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="12"/>
-      <c r="X8" s="15"/>
-      <c r="AD8" s="12"/>
+        <v>21</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="H8" s="13"/>
+      <c r="J8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="V8" s="21"/>
+      <c r="AD8" s="15"/>
+      <c r="AE8" s="9"/>
       <c r="AH8" s="7"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="E9" s="17"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="12"/>
-      <c r="X9" s="15"/>
-      <c r="AD9" s="12"/>
+        <v>23</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="E9" s="25"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="V9" s="7"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="9"/>
       <c r="AH9" s="7"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="E10" s="17"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="12"/>
-      <c r="X10" s="15"/>
-      <c r="AD10" s="12"/>
+        <v>24</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="E10" s="25"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="V10" s="7"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="9"/>
       <c r="AH10" s="7"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="E11" s="17"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="12"/>
-      <c r="AD11" s="12"/>
+        <v>25</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="E11" s="25"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="V11" s="7"/>
+      <c r="AD11" s="15"/>
+      <c r="AE11" s="9"/>
       <c r="AH11" s="7"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="E12" s="17"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="12"/>
-      <c r="AD12" s="18"/>
+        <v>26</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="E12" s="25"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="V12" s="7"/>
+      <c r="AD12" s="15"/>
       <c r="AH12" s="7"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="E13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="C13" s="13"/>
+      <c r="E13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="22" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="I13" s="13"/>
+      <c r="J13" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="Q13" s="18"/>
-      <c r="T13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="U13" s="7"/>
-      <c r="X13" s="22" t="s">
+      <c r="K13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="N13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="26"/>
+      <c r="U13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="Y13" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z13" s="21" t="s">
+      <c r="V13" s="7"/>
+      <c r="Y13" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z13" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AB13" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD13" s="18"/>
-      <c r="AF13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG13" s="13" t="s">
+      <c r="AD13" s="27" t="s">
         <v>30</v>
+      </c>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="AH13" s="7"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="Q14" s="18"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="18"/>
-      <c r="AD14" s="18"/>
+        <v>34</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="15"/>
+      <c r="L14" s="29"/>
+      <c r="R14" s="26"/>
+      <c r="V14" s="7"/>
+      <c r="AD14" s="15"/>
+      <c r="AF14" s="9"/>
       <c r="AH14" s="7"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="Q15" s="18"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="18"/>
-      <c r="AD15" s="18"/>
+        <v>35</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="15"/>
+      <c r="L15" s="9"/>
+      <c r="R15" s="26"/>
+      <c r="V15" s="7"/>
+      <c r="AD15" s="15"/>
+      <c r="AF15" s="9"/>
       <c r="AH15" s="7"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="Q16" s="18"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="18"/>
-      <c r="AD16" s="18"/>
+        <v>36</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="15"/>
+      <c r="L16" s="9"/>
+      <c r="R16" s="26"/>
+      <c r="V16" s="7"/>
+      <c r="AD16" s="15"/>
+      <c r="AF16" s="9"/>
       <c r="AH16" s="7"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="Q17" s="18"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="18"/>
-      <c r="AD17" s="18"/>
+        <v>37</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="15"/>
+      <c r="L17" s="9"/>
+      <c r="R17" s="26"/>
+      <c r="V17" s="7"/>
+      <c r="AD17" s="15"/>
+      <c r="AF17" s="9"/>
       <c r="AH17" s="7"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="Q18" s="18"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="18"/>
-      <c r="AD18" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="15"/>
+      <c r="L18" s="9"/>
+      <c r="R18" s="26"/>
+      <c r="V18" s="7"/>
+      <c r="AD18" s="15"/>
+      <c r="AF18" s="9"/>
       <c r="AH18" s="7"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="F19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="17"/>
-      <c r="I19" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="F19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="I19" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="J19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="9"/>
+      <c r="M19" s="25"/>
+      <c r="P19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="17"/>
-      <c r="P19" s="13" t="s">
+      <c r="T19" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="V19" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="W19" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="X19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AC19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="S19" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="U19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="V19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="W19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AC19" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD19" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF19" s="17"/>
-      <c r="AH19" s="26" t="s">
-        <v>42</v>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="25"/>
+      <c r="AH19" s="34" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="D20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="J20" s="12"/>
-      <c r="M20" s="17"/>
-      <c r="Q20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AH20" s="27"/>
+        <v>48</v>
+      </c>
+      <c r="B20" s="15"/>
+      <c r="D20" s="22"/>
+      <c r="G20" s="25"/>
+      <c r="J20" s="15"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="25"/>
+      <c r="R20" s="15"/>
+      <c r="V20" s="21"/>
+      <c r="X20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="25"/>
+      <c r="AH20" s="21"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="D21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="J21" s="12"/>
-      <c r="M21" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AH21" s="27"/>
+        <v>49</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="D21" s="22"/>
+      <c r="G21" s="25"/>
+      <c r="J21" s="15"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R21" s="15"/>
+      <c r="V21" s="21"/>
+      <c r="X21" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA21" s="25"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF21" s="25"/>
+      <c r="AH21" s="21"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="D22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="J22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="AA22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AH22" s="27"/>
+        <v>52</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="D22" s="22"/>
+      <c r="G22" s="25"/>
+      <c r="J22" s="15"/>
+      <c r="L22" s="9"/>
+      <c r="R22" s="15"/>
+      <c r="V22" s="21"/>
+      <c r="AA22" s="25"/>
+      <c r="AD22" s="8"/>
+      <c r="AF22" s="25"/>
+      <c r="AH22" s="21"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="D23" s="11"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="N23" s="29"/>
-      <c r="O23" s="17"/>
-      <c r="Q23" s="12"/>
-      <c r="T23" s="17"/>
-      <c r="V23" s="12"/>
-      <c r="X23" s="17"/>
-      <c r="Y23" s="17"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="17"/>
-      <c r="AF23" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="AG23" s="17"/>
-      <c r="AH23" s="27"/>
+        <v>53</v>
+      </c>
+      <c r="B23" s="15"/>
+      <c r="D23" s="13"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N23" s="9"/>
+      <c r="O23" s="25"/>
+      <c r="R23" s="15"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="21"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AD23" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF23" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="21"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="D24" s="11"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="17"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="17"/>
-      <c r="Q24" s="12"/>
-      <c r="T24" s="17"/>
-      <c r="V24" s="12"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="27"/>
+        <v>54</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="25"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="25"/>
+      <c r="R24" s="15"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="21"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
+      <c r="AA24" s="25"/>
+      <c r="AD24" s="15"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="21"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="D25" s="11"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="17"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="17"/>
-      <c r="Q25" s="12"/>
-      <c r="T25" s="17"/>
-      <c r="V25" s="12"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="27"/>
+        <v>56</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="D25" s="13"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="25"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="25"/>
+      <c r="R25" s="15"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="21"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="25"/>
+      <c r="AD25" s="15"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="21"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="D26" s="11"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="17"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="17"/>
-      <c r="Q26" s="12"/>
-      <c r="T26" s="17"/>
-      <c r="V26" s="12"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="27"/>
+        <v>57</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="D26" s="13"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="25"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="25"/>
+      <c r="R26" s="15"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="21"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25"/>
+      <c r="AD26" s="15"/>
+      <c r="AG26" s="25"/>
+      <c r="AH26" s="21"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="D27" s="11"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="J27" s="12"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="17"/>
-      <c r="Q27" s="12"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="V27" s="12"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="27"/>
+        <v>58</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="D27" s="13"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="J27" s="15"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="25"/>
+      <c r="R27" s="15"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="21"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25"/>
+      <c r="AH27" s="21"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="36"/>
+        <v>59</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="42"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="40"/>
+      <c r="Z28" s="40"/>
+      <c r="AA28" s="40"/>
+      <c r="AB28" s="39"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="36"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="40"/>
+      <c r="AG28" s="40"/>
+      <c r="AH28" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="Q1:U1"/>
-    <mergeCell ref="S3:S12"/>
-    <mergeCell ref="T13:T22"/>
+  <mergeCells count="58">
+    <mergeCell ref="AG13:AG22"/>
+    <mergeCell ref="AC19:AC28"/>
+    <mergeCell ref="AH19:AH28"/>
+    <mergeCell ref="AD7:AD12"/>
+    <mergeCell ref="AD23:AD28"/>
+    <mergeCell ref="AD13:AD18"/>
+    <mergeCell ref="AE21:AE26"/>
+    <mergeCell ref="AF23:AF26"/>
     <mergeCell ref="J2:J11"/>
     <mergeCell ref="K3:K12"/>
-    <mergeCell ref="J13:J18"/>
     <mergeCell ref="K13:K22"/>
-    <mergeCell ref="L13:L22"/>
     <mergeCell ref="N13:N22"/>
     <mergeCell ref="O13:O22"/>
-    <mergeCell ref="AF13:AF18"/>
-    <mergeCell ref="AF23:AF26"/>
-    <mergeCell ref="AD2:AD11"/>
-    <mergeCell ref="AE2:AE11"/>
-    <mergeCell ref="AG13:AG22"/>
-    <mergeCell ref="AC19:AC28"/>
-    <mergeCell ref="AD19:AD28"/>
-    <mergeCell ref="AE19:AE28"/>
-    <mergeCell ref="AH19:AH28"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D3:D12"/>
-    <mergeCell ref="E13:E22"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="F19:F28"/>
-    <mergeCell ref="V3:V12"/>
-    <mergeCell ref="W3:W12"/>
-    <mergeCell ref="X13:X22"/>
-    <mergeCell ref="Y13:Y22"/>
-    <mergeCell ref="Z13:Z22"/>
-    <mergeCell ref="AB13:AB22"/>
+    <mergeCell ref="L5:L12"/>
+    <mergeCell ref="J13:J18"/>
+    <mergeCell ref="T3:T12"/>
+    <mergeCell ref="V3:V8"/>
+    <mergeCell ref="R2:R11"/>
+    <mergeCell ref="S2:S11"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="AD1:AH1"/>
+    <mergeCell ref="G3:G12"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="I3:I8"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="J1:Q1"/>
     <mergeCell ref="AA3:AA12"/>
     <mergeCell ref="AF3:AF12"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:P1"/>
-    <mergeCell ref="V1:AC1"/>
-    <mergeCell ref="AD1:AH1"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="G3:G12"/>
-    <mergeCell ref="M3:M12"/>
     <mergeCell ref="H13:H22"/>
     <mergeCell ref="I19:I28"/>
     <mergeCell ref="J19:J28"/>
     <mergeCell ref="M21:M28"/>
     <mergeCell ref="L23:L26"/>
+    <mergeCell ref="P19:P28"/>
+    <mergeCell ref="U13:U22"/>
+    <mergeCell ref="R19:R28"/>
+    <mergeCell ref="S19:S28"/>
+    <mergeCell ref="T19:T26"/>
+    <mergeCell ref="Q21:Q26"/>
+    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D3:D12"/>
+    <mergeCell ref="E13:E22"/>
+    <mergeCell ref="C19:C28"/>
+    <mergeCell ref="F19:F28"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="Y13:Y22"/>
+    <mergeCell ref="Y5:Y12"/>
+    <mergeCell ref="AB13:AB22"/>
+    <mergeCell ref="X21:X28"/>
+    <mergeCell ref="W19:W28"/>
+    <mergeCell ref="X3:X12"/>
+    <mergeCell ref="Z13:Z22"/>
+    <mergeCell ref="W3:W12"/>
     <mergeCell ref="V19:V28"/>
-    <mergeCell ref="W21:W28"/>
-    <mergeCell ref="Q2:Q11"/>
-    <mergeCell ref="R2:R11"/>
-    <mergeCell ref="P19:P28"/>
-    <mergeCell ref="Q19:Q28"/>
-    <mergeCell ref="R19:R28"/>
-    <mergeCell ref="S19:S26"/>
-    <mergeCell ref="U19:U28"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
